--- a/SILABO_2015B_ASI_TSI213 Sistemas Operativos_ASI_Salvador Edwin.xlsx
+++ b/SILABO_2015B_ASI_TSI213 Sistemas Operativos_ASI_Salvador Edwin.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="113">
   <si>
     <t xml:space="preserve">ESCUELA POLITÉCNICA NACIONAL </t>
   </si>
@@ -428,18 +428,12 @@
     <t>Gestión de procesos (IASO)</t>
   </si>
   <si>
-    <t>Interbloqueos</t>
-  </si>
-  <si>
     <t>Gestión de Memoria</t>
   </si>
   <si>
     <t>Gestión de almacenamiento</t>
   </si>
   <si>
-    <t>Clasificación de los SO</t>
-  </si>
-  <si>
     <t>Instalación y configuración de SO</t>
   </si>
   <si>
@@ -449,36 +443,60 @@
     <t>Actualización del SO</t>
   </si>
   <si>
-    <t>Utilidades del SO</t>
-  </si>
-  <si>
-    <t>Casos de Estudio</t>
-  </si>
-  <si>
     <t>Clase magistral, práctica</t>
   </si>
   <si>
     <t>Clase magistral, presentaciones</t>
   </si>
   <si>
+    <t>Demostrar responsabilidad con las soluciones y manejo del software, respetando el ámbito académico.</t>
+  </si>
+  <si>
+    <t>Particiapación</t>
+  </si>
+  <si>
+    <t>Exclusión mutua</t>
+  </si>
+  <si>
+    <t>Virtualización</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>Presentaciones</t>
+  </si>
+  <si>
+    <t>Práctica</t>
+  </si>
+  <si>
+    <t>Interbloqueos
+Prueba</t>
+  </si>
+  <si>
+    <t>Clasificación de los SO
+Examen</t>
+  </si>
+  <si>
+    <t>Virtualización
+Prueba</t>
+  </si>
+  <si>
     <t>ESFOT Aula 22A
-Miércoles de 9:00 a.m. a 12:00 p.m.</t>
-  </si>
-  <si>
-    <t>Demostrar responsabilidad con las soluciones y manejo del software, respetando el ámbito académico.</t>
-  </si>
-  <si>
-    <t>Septiembre/2015 - Febrero/2015</t>
-  </si>
-  <si>
-    <t>Particiapación</t>
+Jueves de 7:00 a.m. a 10:00 a.m.</t>
+  </si>
+  <si>
+    <t>Clase magistral</t>
+  </si>
+  <si>
+    <t>Septiembre/2015 - Febrero/2016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,6 +586,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -906,7 +930,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -974,30 +998,144 @@
     <xf numFmtId="14" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1005,111 +1143,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1466,10 +1499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I384"/>
+  <dimension ref="A1:I386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="I132" sqref="I132"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126:I126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,47 +1519,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
     </row>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
     </row>
     <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
@@ -1540,104 +1573,104 @@
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="44"/>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="21"/>
     </row>
     <row r="8" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="31"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="50"/>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="34"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="47"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="21"/>
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="50"/>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="34"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="47"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="21"/>
     </row>
     <row r="14" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="31"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="50"/>
     </row>
     <row r="15" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="34"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="47"/>
     </row>
     <row r="16" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="21"/>
@@ -1651,252 +1684,252 @@
       <c r="I16"/>
     </row>
     <row r="17" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="31"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="50"/>
     </row>
     <row r="18" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="34"/>
+      <c r="A18" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="47"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
     </row>
     <row r="20" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="44"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="21"/>
     </row>
     <row r="22" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="31"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="50"/>
     </row>
     <row r="23" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="34"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="47"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="21"/>
     </row>
     <row r="25" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="31"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="50"/>
     </row>
     <row r="26" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="34"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="47"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21"/>
     </row>
     <row r="28" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="31"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="50"/>
     </row>
     <row r="29" spans="1:9" s="4" customFormat="1" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="34"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="47"/>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21"/>
     </row>
     <row r="31" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="44"/>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="21"/>
     </row>
     <row r="33" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="31"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="50"/>
     </row>
     <row r="34" spans="1:9" s="4" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="34"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="47"/>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="21"/>
     </row>
     <row r="36" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="31"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="50"/>
     </row>
     <row r="37" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="32">
+      <c r="A37" s="45">
         <v>3</v>
       </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="34"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="47"/>
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="21"/>
     </row>
     <row r="39" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="31"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="50"/>
     </row>
     <row r="40" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="34"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="47"/>
     </row>
     <row r="41" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="21"/>
     </row>
     <row r="42" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="31"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="50"/>
     </row>
     <row r="43" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
@@ -1919,17 +1952,17 @@
       <c r="A44" s="21"/>
     </row>
     <row r="45" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="31"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="50"/>
     </row>
     <row r="46" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
@@ -2024,30 +2057,30 @@
       <c r="I53" s="11"/>
     </row>
     <row r="54" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="29" t="s">
+      <c r="A54" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="31"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="50"/>
     </row>
     <row r="55" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="35" t="s">
+      <c r="A55" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="37"/>
+      <c r="B55" s="74"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="74"/>
+      <c r="H55" s="74"/>
+      <c r="I55" s="75"/>
     </row>
     <row r="56" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="21"/>
@@ -2061,133 +2094,133 @@
       <c r="I56"/>
     </row>
     <row r="57" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="29" t="s">
+      <c r="A57" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="31"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="50"/>
     </row>
     <row r="58" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="32" t="s">
+      <c r="A58" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="34"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="47"/>
     </row>
     <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="21"/>
     </row>
     <row r="60" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="41" t="s">
+      <c r="A60" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="43"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="44"/>
     </row>
     <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="21"/>
     </row>
     <row r="62" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="46" t="s">
+      <c r="A62" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B62" s="47"/>
-      <c r="C62" s="46" t="s">
+      <c r="B62" s="56"/>
+      <c r="C62" s="54" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="55"/>
       <c r="E62" s="55"/>
       <c r="F62" s="55"/>
-      <c r="G62" s="47"/>
-      <c r="H62" s="46" t="s">
+      <c r="G62" s="56"/>
+      <c r="H62" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="I62" s="47"/>
+      <c r="I62" s="56"/>
     </row>
     <row r="63" spans="1:9" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="44" t="s">
+      <c r="A63" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="45"/>
-      <c r="C63" s="38" t="s">
+      <c r="B63" s="53"/>
+      <c r="C63" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="38" t="s">
+      <c r="D63" s="58"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="59"/>
+      <c r="H63" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="I63" s="40"/>
+      <c r="I63" s="59"/>
     </row>
     <row r="64" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="44" t="s">
+      <c r="A64" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B64" s="45"/>
-      <c r="C64" s="38" t="s">
+      <c r="B64" s="53"/>
+      <c r="C64" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="40"/>
-      <c r="H64" s="38" t="s">
+      <c r="D64" s="58"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="59"/>
+      <c r="H64" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="I64" s="40"/>
+      <c r="I64" s="59"/>
     </row>
     <row r="65" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="44" t="s">
+      <c r="A65" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B65" s="45"/>
-      <c r="C65" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="40"/>
-      <c r="H65" s="38" t="s">
+      <c r="B65" s="53"/>
+      <c r="C65" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="D65" s="58"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="I65" s="40"/>
+      <c r="I65" s="59"/>
     </row>
     <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="21"/>
     </row>
     <row r="67" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="41" t="s">
+      <c r="A67" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="43"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="44"/>
     </row>
     <row r="68" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="21"/>
@@ -2201,178 +2234,178 @@
       <c r="I68"/>
     </row>
     <row r="69" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="29" t="s">
+      <c r="A69" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="31"/>
+      <c r="B69" s="49"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="49"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="49"/>
+      <c r="I69" s="50"/>
     </row>
     <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="21"/>
     </row>
     <row r="71" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="59" t="s">
+      <c r="A71" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="B71" s="60"/>
-      <c r="C71" s="60"/>
-      <c r="D71" s="60"/>
-      <c r="E71" s="60"/>
-      <c r="F71" s="60"/>
-      <c r="G71" s="60"/>
-      <c r="H71" s="60"/>
-      <c r="I71" s="61"/>
+      <c r="B71" s="67"/>
+      <c r="C71" s="67"/>
+      <c r="D71" s="67"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="67"/>
+      <c r="G71" s="67"/>
+      <c r="H71" s="67"/>
+      <c r="I71" s="68"/>
     </row>
     <row r="72" spans="1:9" ht="409.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="62" t="s">
+      <c r="A72" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="B72" s="63"/>
-      <c r="C72" s="63"/>
-      <c r="D72" s="63"/>
-      <c r="E72" s="63"/>
-      <c r="F72" s="63"/>
-      <c r="G72" s="63"/>
-      <c r="H72" s="63"/>
-      <c r="I72" s="64"/>
+      <c r="B72" s="70"/>
+      <c r="C72" s="70"/>
+      <c r="D72" s="70"/>
+      <c r="E72" s="70"/>
+      <c r="F72" s="70"/>
+      <c r="G72" s="70"/>
+      <c r="H72" s="70"/>
+      <c r="I72" s="71"/>
     </row>
     <row r="73" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="21"/>
     </row>
     <row r="74" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="29" t="s">
+      <c r="A74" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="B74" s="30"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="30"/>
-      <c r="I74" s="31"/>
+      <c r="B74" s="49"/>
+      <c r="C74" s="49"/>
+      <c r="D74" s="49"/>
+      <c r="E74" s="49"/>
+      <c r="F74" s="49"/>
+      <c r="G74" s="49"/>
+      <c r="H74" s="49"/>
+      <c r="I74" s="50"/>
     </row>
     <row r="75" spans="1:9" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="56" t="s">
+      <c r="A75" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="B75" s="57"/>
-      <c r="C75" s="57"/>
-      <c r="D75" s="57"/>
-      <c r="E75" s="57"/>
-      <c r="F75" s="57"/>
-      <c r="G75" s="57"/>
-      <c r="H75" s="57"/>
-      <c r="I75" s="58"/>
+      <c r="B75" s="61"/>
+      <c r="C75" s="61"/>
+      <c r="D75" s="61"/>
+      <c r="E75" s="61"/>
+      <c r="F75" s="61"/>
+      <c r="G75" s="61"/>
+      <c r="H75" s="61"/>
+      <c r="I75" s="62"/>
     </row>
     <row r="76" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="21"/>
     </row>
     <row r="77" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="29" t="s">
+      <c r="A77" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="B77" s="30"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="30"/>
-      <c r="F77" s="30"/>
-      <c r="G77" s="30"/>
-      <c r="H77" s="30"/>
-      <c r="I77" s="31"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="49"/>
+      <c r="E77" s="49"/>
+      <c r="F77" s="49"/>
+      <c r="G77" s="49"/>
+      <c r="H77" s="49"/>
+      <c r="I77" s="50"/>
     </row>
     <row r="78" spans="1:9" s="4" customFormat="1" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="56" t="s">
+      <c r="A78" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="B78" s="57"/>
-      <c r="C78" s="57"/>
-      <c r="D78" s="57"/>
-      <c r="E78" s="57"/>
-      <c r="F78" s="57"/>
-      <c r="G78" s="57"/>
-      <c r="H78" s="57"/>
-      <c r="I78" s="58"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="65"/>
     </row>
     <row r="79" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="21"/>
     </row>
     <row r="80" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="29" t="s">
+      <c r="A80" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B80" s="30"/>
-      <c r="C80" s="30"/>
-      <c r="D80" s="30"/>
-      <c r="E80" s="30"/>
-      <c r="F80" s="30"/>
-      <c r="G80" s="30"/>
-      <c r="H80" s="30"/>
-      <c r="I80" s="31"/>
+      <c r="B80" s="49"/>
+      <c r="C80" s="49"/>
+      <c r="D80" s="49"/>
+      <c r="E80" s="49"/>
+      <c r="F80" s="49"/>
+      <c r="G80" s="49"/>
+      <c r="H80" s="49"/>
+      <c r="I80" s="50"/>
     </row>
     <row r="81" spans="1:9" s="4" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="67" t="s">
+      <c r="A81" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B81" s="68"/>
-      <c r="C81" s="68"/>
-      <c r="D81" s="68"/>
-      <c r="E81" s="68"/>
-      <c r="F81" s="68"/>
-      <c r="G81" s="68"/>
-      <c r="H81" s="68"/>
-      <c r="I81" s="69"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="30"/>
     </row>
     <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="21"/>
     </row>
     <row r="83" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="66" t="s">
+      <c r="A83" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B83" s="66"/>
-      <c r="C83" s="66"/>
-      <c r="D83" s="66"/>
-      <c r="E83" s="66"/>
-      <c r="F83" s="66"/>
-      <c r="G83" s="66"/>
-      <c r="H83" s="66"/>
-      <c r="I83" s="66"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="27"/>
     </row>
     <row r="84" spans="1:9" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="48" t="s">
+      <c r="A84" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="B84" s="49"/>
-      <c r="C84" s="49"/>
-      <c r="D84" s="49"/>
-      <c r="E84" s="49"/>
-      <c r="F84" s="49"/>
-      <c r="G84" s="49"/>
-      <c r="H84" s="49"/>
-      <c r="I84" s="50"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="37"/>
     </row>
     <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="21"/>
     </row>
     <row r="86" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="66" t="s">
+      <c r="A86" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B86" s="66"/>
-      <c r="C86" s="66"/>
-      <c r="D86" s="66"/>
-      <c r="E86" s="66"/>
-      <c r="F86" s="66"/>
-      <c r="G86" s="66"/>
-      <c r="H86" s="66"/>
-      <c r="I86" s="66"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="27"/>
+      <c r="I86" s="27"/>
     </row>
     <row r="87" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="21"/>
@@ -2389,14 +2422,14 @@
       <c r="A88" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="70" t="s">
+      <c r="B88" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C88" s="70"/>
-      <c r="D88" s="70"/>
-      <c r="E88" s="70"/>
-      <c r="F88" s="70"/>
-      <c r="G88" s="70"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
       <c r="H88" s="24" t="s">
         <v>12</v>
       </c>
@@ -2408,14 +2441,14 @@
       <c r="A89" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B89" s="54" t="s">
+      <c r="B89" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="C89" s="52"/>
-      <c r="D89" s="52"/>
-      <c r="E89" s="52"/>
-      <c r="F89" s="52"/>
-      <c r="G89" s="53"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="34"/>
       <c r="H89" s="25">
         <v>0.25</v>
       </c>
@@ -2427,14 +2460,14 @@
       <c r="A90" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B90" s="54" t="s">
+      <c r="B90" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="52"/>
-      <c r="D90" s="52"/>
-      <c r="E90" s="52"/>
-      <c r="F90" s="52"/>
-      <c r="G90" s="53"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="34"/>
       <c r="H90" s="25">
         <v>0.2</v>
       </c>
@@ -2444,16 +2477,16 @@
     </row>
     <row r="91" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="B91" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="B91" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="C91" s="52"/>
-      <c r="D91" s="52"/>
-      <c r="E91" s="52"/>
-      <c r="F91" s="52"/>
-      <c r="G91" s="53"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="34"/>
       <c r="H91" s="25">
         <v>0.15</v>
       </c>
@@ -2465,14 +2498,14 @@
       <c r="A92" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="B92" s="54" t="s">
+      <c r="B92" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="C92" s="52"/>
-      <c r="D92" s="52"/>
-      <c r="E92" s="52"/>
-      <c r="F92" s="52"/>
-      <c r="G92" s="53"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="34"/>
       <c r="H92" s="25">
         <v>0.4</v>
       </c>
@@ -2484,12 +2517,12 @@
       <c r="A93" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B93" s="54"/>
-      <c r="C93" s="52"/>
-      <c r="D93" s="52"/>
-      <c r="E93" s="52"/>
-      <c r="F93" s="52"/>
-      <c r="G93" s="53"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="33"/>
+      <c r="G93" s="34"/>
       <c r="H93" s="25">
         <v>1</v>
       </c>
@@ -2498,10 +2531,10 @@
       </c>
     </row>
     <row r="94" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="72" t="s">
+      <c r="A94" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B94" s="72"/>
+      <c r="B94" s="39"/>
       <c r="C94" s="12"/>
       <c r="D94" s="12"/>
       <c r="E94" s="12"/>
@@ -2514,46 +2547,46 @@
       <c r="A95" s="21"/>
     </row>
     <row r="96" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="66" t="s">
+      <c r="A96" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B96" s="66"/>
-      <c r="C96" s="66"/>
-      <c r="D96" s="66"/>
-      <c r="E96" s="66"/>
-      <c r="F96" s="66"/>
-      <c r="G96" s="66"/>
-      <c r="H96" s="66"/>
-      <c r="I96" s="66"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="27"/>
+      <c r="H96" s="27"/>
+      <c r="I96" s="27"/>
     </row>
     <row r="97" spans="1:9" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="48" t="s">
+      <c r="A97" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="B97" s="49"/>
-      <c r="C97" s="49"/>
-      <c r="D97" s="49"/>
-      <c r="E97" s="49"/>
-      <c r="F97" s="49"/>
-      <c r="G97" s="49"/>
-      <c r="H97" s="49"/>
-      <c r="I97" s="50"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="36"/>
+      <c r="F97" s="36"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="37"/>
     </row>
     <row r="98" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="21"/>
     </row>
     <row r="99" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="66" t="s">
+      <c r="A99" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B99" s="66"/>
-      <c r="C99" s="66"/>
-      <c r="D99" s="66"/>
-      <c r="E99" s="66"/>
-      <c r="F99" s="66"/>
-      <c r="G99" s="66"/>
-      <c r="H99" s="66"/>
-      <c r="I99" s="66"/>
+      <c r="B99" s="27"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="27"/>
+      <c r="H99" s="27"/>
+      <c r="I99" s="27"/>
     </row>
     <row r="100" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="21"/>
@@ -2565,506 +2598,520 @@
       <c r="B101" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C101" s="70" t="s">
+      <c r="C101" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D101" s="70"/>
-      <c r="E101" s="70"/>
-      <c r="F101" s="70"/>
-      <c r="G101" s="70" t="s">
+      <c r="D101" s="31"/>
+      <c r="E101" s="31"/>
+      <c r="F101" s="31"/>
+      <c r="G101" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H101" s="70"/>
-      <c r="I101" s="70"/>
+      <c r="H101" s="31"/>
+      <c r="I101" s="31"/>
     </row>
     <row r="102" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="18">
         <v>1</v>
       </c>
       <c r="B102" s="26">
-        <v>42102</v>
-      </c>
-      <c r="C102" s="51" t="s">
+        <v>42278</v>
+      </c>
+      <c r="C102" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="D102" s="52"/>
-      <c r="E102" s="52"/>
-      <c r="F102" s="53"/>
-      <c r="G102" s="54" t="s">
+      <c r="D102" s="33"/>
+      <c r="E102" s="33"/>
+      <c r="F102" s="34"/>
+      <c r="G102" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="H102" s="52"/>
-      <c r="I102" s="53"/>
+      <c r="H102" s="33"/>
+      <c r="I102" s="34"/>
     </row>
     <row r="103" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="18">
         <v>2</v>
       </c>
       <c r="B103" s="26">
-        <v>42109</v>
-      </c>
-      <c r="C103" s="51" t="s">
+        <v>42285</v>
+      </c>
+      <c r="C103" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="D103" s="52"/>
-      <c r="E103" s="52"/>
-      <c r="F103" s="53"/>
-      <c r="G103" s="54" t="s">
+      <c r="D103" s="33"/>
+      <c r="E103" s="33"/>
+      <c r="F103" s="34"/>
+      <c r="G103" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="H103" s="52"/>
-      <c r="I103" s="53"/>
+      <c r="H103" s="33"/>
+      <c r="I103" s="34"/>
     </row>
     <row r="104" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="18">
         <v>3</v>
       </c>
       <c r="B104" s="26">
-        <v>42116</v>
-      </c>
-      <c r="C104" s="51" t="s">
+        <v>42292</v>
+      </c>
+      <c r="C104" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="D104" s="52"/>
-      <c r="E104" s="52"/>
-      <c r="F104" s="53"/>
-      <c r="G104" s="54" t="s">
+      <c r="D104" s="33"/>
+      <c r="E104" s="33"/>
+      <c r="F104" s="34"/>
+      <c r="G104" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="H104" s="52"/>
-      <c r="I104" s="53"/>
+      <c r="H104" s="33"/>
+      <c r="I104" s="34"/>
     </row>
     <row r="105" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="18">
         <v>4</v>
       </c>
       <c r="B105" s="26">
-        <v>42123</v>
-      </c>
-      <c r="C105" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="D105" s="52"/>
-      <c r="E105" s="52"/>
-      <c r="F105" s="53"/>
-      <c r="G105" s="54" t="s">
+        <v>42299</v>
+      </c>
+      <c r="C105" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="D105" s="33"/>
+      <c r="E105" s="33"/>
+      <c r="F105" s="34"/>
+      <c r="G105" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="H105" s="52"/>
-      <c r="I105" s="53"/>
+      <c r="H105" s="33"/>
+      <c r="I105" s="34"/>
     </row>
     <row r="106" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B106" s="26">
-        <v>42130</v>
-      </c>
-      <c r="C106" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="D106" s="52"/>
-      <c r="E106" s="52"/>
-      <c r="F106" s="53"/>
-      <c r="G106" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="H106" s="52"/>
-      <c r="I106" s="53"/>
+        <v>42306</v>
+      </c>
+      <c r="C106" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="D106" s="33"/>
+      <c r="E106" s="33"/>
+      <c r="F106" s="34"/>
+      <c r="G106" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="H106" s="33"/>
+      <c r="I106" s="34"/>
     </row>
     <row r="107" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B107" s="26">
-        <v>42137</v>
-      </c>
-      <c r="C107" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="D107" s="52"/>
-      <c r="E107" s="52"/>
-      <c r="F107" s="53"/>
-      <c r="G107" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="H107" s="52"/>
-      <c r="I107" s="53"/>
+        <v>42313</v>
+      </c>
+      <c r="C107" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D107" s="33"/>
+      <c r="E107" s="33"/>
+      <c r="F107" s="34"/>
+      <c r="G107" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="H107" s="33"/>
+      <c r="I107" s="34"/>
     </row>
     <row r="108" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="18">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B108" s="26">
-        <v>42144</v>
-      </c>
-      <c r="C108" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="D108" s="52"/>
-      <c r="E108" s="52"/>
-      <c r="F108" s="53"/>
-      <c r="G108" s="54" t="s">
+        <v>42320</v>
+      </c>
+      <c r="C108" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="D108" s="33"/>
+      <c r="E108" s="33"/>
+      <c r="F108" s="34"/>
+      <c r="G108" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="H108" s="52"/>
-      <c r="I108" s="53"/>
+      <c r="H108" s="33"/>
+      <c r="I108" s="34"/>
     </row>
     <row r="109" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B109" s="26">
-        <v>42151</v>
-      </c>
-      <c r="C109" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="D109" s="52"/>
-      <c r="E109" s="52"/>
-      <c r="F109" s="53"/>
-      <c r="G109" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="H109" s="52"/>
-      <c r="I109" s="53"/>
+        <v>42327</v>
+      </c>
+      <c r="C109" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D109" s="33"/>
+      <c r="E109" s="33"/>
+      <c r="F109" s="34"/>
+      <c r="G109" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="H109" s="33"/>
+      <c r="I109" s="34"/>
     </row>
     <row r="110" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="18">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B110" s="26">
-        <v>42158</v>
-      </c>
-      <c r="C110" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="D110" s="52"/>
-      <c r="E110" s="52"/>
-      <c r="F110" s="53"/>
-      <c r="G110" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="H110" s="52"/>
-      <c r="I110" s="53"/>
+        <v>42334</v>
+      </c>
+      <c r="C110" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D110" s="33"/>
+      <c r="E110" s="33"/>
+      <c r="F110" s="34"/>
+      <c r="G110" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="H110" s="33"/>
+      <c r="I110" s="34"/>
     </row>
     <row r="111" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="18">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B111" s="26">
-        <v>42165</v>
-      </c>
-      <c r="C111" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="D111" s="52"/>
-      <c r="E111" s="52"/>
-      <c r="F111" s="53"/>
-      <c r="G111" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="H111" s="52"/>
-      <c r="I111" s="53"/>
+        <v>42341</v>
+      </c>
+      <c r="C111" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D111" s="33"/>
+      <c r="E111" s="33"/>
+      <c r="F111" s="34"/>
+      <c r="G111" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="H111" s="33"/>
+      <c r="I111" s="34"/>
     </row>
     <row r="112" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="18">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B112" s="26">
-        <v>42172</v>
-      </c>
-      <c r="C112" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="D112" s="52"/>
-      <c r="E112" s="52"/>
-      <c r="F112" s="53"/>
-      <c r="G112" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="H112" s="52"/>
-      <c r="I112" s="53"/>
+        <v>42348</v>
+      </c>
+      <c r="C112" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D112" s="33"/>
+      <c r="E112" s="33"/>
+      <c r="F112" s="34"/>
+      <c r="G112" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="H112" s="33"/>
+      <c r="I112" s="34"/>
     </row>
     <row r="113" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="18">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B113" s="26">
-        <v>42179</v>
-      </c>
-      <c r="C113" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="D113" s="52"/>
-      <c r="E113" s="52"/>
-      <c r="F113" s="53"/>
-      <c r="G113" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="H113" s="52"/>
-      <c r="I113" s="53"/>
-    </row>
-    <row r="114" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42355</v>
+      </c>
+      <c r="C113" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D113" s="33"/>
+      <c r="E113" s="33"/>
+      <c r="F113" s="34"/>
+      <c r="G113" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="H113" s="33"/>
+      <c r="I113" s="34"/>
+    </row>
+    <row r="114" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="18">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B114" s="26">
-        <v>42186</v>
-      </c>
-      <c r="C114" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="D114" s="52"/>
-      <c r="E114" s="52"/>
-      <c r="F114" s="53"/>
-      <c r="G114" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="H114" s="52"/>
-      <c r="I114" s="53"/>
+        <v>42011</v>
+      </c>
+      <c r="C114" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="D114" s="33"/>
+      <c r="E114" s="33"/>
+      <c r="F114" s="34"/>
+      <c r="G114" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="H114" s="33"/>
+      <c r="I114" s="34"/>
     </row>
     <row r="115" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="18">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B115" s="26">
-        <v>42193</v>
-      </c>
-      <c r="C115" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="D115" s="52"/>
-      <c r="E115" s="52"/>
-      <c r="F115" s="53"/>
-      <c r="G115" s="54" t="s">
+        <v>42018</v>
+      </c>
+      <c r="C115" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="H115" s="52"/>
-      <c r="I115" s="53"/>
+      <c r="D115" s="33"/>
+      <c r="E115" s="33"/>
+      <c r="F115" s="34"/>
+      <c r="G115" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="H115" s="33"/>
+      <c r="I115" s="34"/>
     </row>
     <row r="116" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="18">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B116" s="26">
-        <v>42200</v>
-      </c>
-      <c r="C116" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="D116" s="52"/>
-      <c r="E116" s="52"/>
-      <c r="F116" s="53"/>
-      <c r="G116" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="H116" s="52"/>
-      <c r="I116" s="53"/>
+        <v>42025</v>
+      </c>
+      <c r="C116" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D116" s="33"/>
+      <c r="E116" s="33"/>
+      <c r="F116" s="34"/>
+      <c r="G116" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="H116" s="33"/>
+      <c r="I116" s="34"/>
     </row>
     <row r="117" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="18">
+        <v>16</v>
+      </c>
+      <c r="B117" s="26">
+        <v>42032</v>
+      </c>
+      <c r="C117" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D117" s="33"/>
+      <c r="E117" s="33"/>
+      <c r="F117" s="34"/>
+      <c r="G117" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="H117" s="33"/>
+      <c r="I117" s="34"/>
+    </row>
+    <row r="118" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="18">
+        <v>17</v>
+      </c>
+      <c r="B118" s="26">
+        <v>42039</v>
+      </c>
+      <c r="C118" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D118" s="33"/>
+      <c r="E118" s="33"/>
+      <c r="F118" s="34"/>
+      <c r="G118" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="H118" s="33"/>
+      <c r="I118" s="34"/>
+    </row>
+    <row r="119" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="18">
         <v>18</v>
       </c>
-      <c r="B117" s="26">
-        <v>42207</v>
-      </c>
-      <c r="C117" s="51" t="s">
+      <c r="B119" s="26">
+        <v>42046</v>
+      </c>
+      <c r="C119" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="D117" s="52"/>
-      <c r="E117" s="52"/>
-      <c r="F117" s="53"/>
-      <c r="G117" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="H117" s="52"/>
-      <c r="I117" s="53"/>
-    </row>
-    <row r="118" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="72" t="s">
+      <c r="D119" s="33"/>
+      <c r="E119" s="33"/>
+      <c r="F119" s="34"/>
+      <c r="G119" s="32"/>
+      <c r="H119" s="33"/>
+      <c r="I119" s="34"/>
+    </row>
+    <row r="120" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B118" s="72"/>
-      <c r="C118" s="20"/>
-      <c r="D118" s="20"/>
-      <c r="E118" s="20"/>
-      <c r="F118" s="20"/>
-      <c r="G118" s="12"/>
-      <c r="H118" s="12"/>
-      <c r="I118" s="12"/>
-    </row>
-    <row r="119" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="21"/>
-    </row>
-    <row r="120" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="66" t="s">
+      <c r="B120" s="39"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="20"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12"/>
+    </row>
+    <row r="121" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="21"/>
+    </row>
+    <row r="122" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B120" s="66"/>
-      <c r="C120" s="66"/>
-      <c r="D120" s="66"/>
-      <c r="E120" s="66"/>
-      <c r="F120" s="66"/>
-      <c r="G120" s="66"/>
-      <c r="H120" s="66"/>
-      <c r="I120" s="66"/>
-    </row>
-    <row r="121" spans="1:9" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="B121" s="49"/>
-      <c r="C121" s="49"/>
-      <c r="D121" s="49"/>
-      <c r="E121" s="49"/>
-      <c r="F121" s="49"/>
-      <c r="G121" s="49"/>
-      <c r="H121" s="49"/>
-      <c r="I121" s="50"/>
-    </row>
-    <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="21"/>
-    </row>
-    <row r="123" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="66" t="s">
+      <c r="B122" s="27"/>
+      <c r="C122" s="27"/>
+      <c r="D122" s="27"/>
+      <c r="E122" s="27"/>
+      <c r="F122" s="27"/>
+      <c r="G122" s="27"/>
+      <c r="H122" s="27"/>
+      <c r="I122" s="27"/>
+    </row>
+    <row r="123" spans="1:9" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B123" s="36"/>
+      <c r="C123" s="36"/>
+      <c r="D123" s="36"/>
+      <c r="E123" s="36"/>
+      <c r="F123" s="36"/>
+      <c r="G123" s="36"/>
+      <c r="H123" s="36"/>
+      <c r="I123" s="37"/>
+    </row>
+    <row r="124" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="21"/>
+    </row>
+    <row r="125" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B123" s="66"/>
-      <c r="C123" s="66"/>
-      <c r="D123" s="66"/>
-      <c r="E123" s="66"/>
-      <c r="F123" s="66"/>
-      <c r="G123" s="66"/>
-      <c r="H123" s="66"/>
-      <c r="I123" s="66"/>
-    </row>
-    <row r="124" spans="1:9" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="48" t="s">
+      <c r="B125" s="27"/>
+      <c r="C125" s="27"/>
+      <c r="D125" s="27"/>
+      <c r="E125" s="27"/>
+      <c r="F125" s="27"/>
+      <c r="G125" s="27"/>
+      <c r="H125" s="27"/>
+      <c r="I125" s="27"/>
+    </row>
+    <row r="126" spans="1:9" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="B124" s="49"/>
-      <c r="C124" s="49"/>
-      <c r="D124" s="49"/>
-      <c r="E124" s="49"/>
-      <c r="F124" s="49"/>
-      <c r="G124" s="49"/>
-      <c r="H124" s="49"/>
-      <c r="I124" s="50"/>
-    </row>
-    <row r="125" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="21"/>
-    </row>
-    <row r="126" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="66" t="s">
+      <c r="B126" s="36"/>
+      <c r="C126" s="36"/>
+      <c r="D126" s="36"/>
+      <c r="E126" s="36"/>
+      <c r="F126" s="36"/>
+      <c r="G126" s="36"/>
+      <c r="H126" s="36"/>
+      <c r="I126" s="37"/>
+    </row>
+    <row r="127" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="21"/>
+    </row>
+    <row r="128" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B126" s="66"/>
-      <c r="C126" s="66"/>
-      <c r="D126" s="66"/>
-      <c r="E126" s="66"/>
-      <c r="F126" s="66"/>
-      <c r="G126" s="66"/>
-      <c r="H126" s="66"/>
-      <c r="I126" s="66"/>
-    </row>
-    <row r="127" spans="1:9" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="71" t="s">
+      <c r="B128" s="27"/>
+      <c r="C128" s="27"/>
+      <c r="D128" s="27"/>
+      <c r="E128" s="27"/>
+      <c r="F128" s="27"/>
+      <c r="G128" s="27"/>
+      <c r="H128" s="27"/>
+      <c r="I128" s="27"/>
+    </row>
+    <row r="129" spans="1:9" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B127" s="71"/>
-      <c r="C127" s="71"/>
-      <c r="D127" s="71"/>
-      <c r="E127" s="71"/>
-      <c r="F127" s="71"/>
-      <c r="G127" s="71"/>
-      <c r="H127" s="71"/>
-      <c r="I127" s="71"/>
-    </row>
-    <row r="128" spans="1:9" ht="333.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="71"/>
-      <c r="B128" s="71"/>
-      <c r="C128" s="71"/>
-      <c r="D128" s="71"/>
-      <c r="E128" s="71"/>
-      <c r="F128" s="71"/>
-      <c r="G128" s="71"/>
-      <c r="H128" s="71"/>
-      <c r="I128" s="71"/>
-    </row>
-    <row r="129" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="21"/>
-    </row>
-    <row r="130" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+      <c r="B129" s="38"/>
+      <c r="C129" s="38"/>
+      <c r="D129" s="38"/>
+      <c r="E129" s="38"/>
+      <c r="F129" s="38"/>
+      <c r="G129" s="38"/>
+      <c r="H129" s="38"/>
+      <c r="I129" s="38"/>
+    </row>
+    <row r="130" spans="1:9" ht="333.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="38"/>
+      <c r="B130" s="38"/>
+      <c r="C130" s="38"/>
+      <c r="D130" s="38"/>
+      <c r="E130" s="38"/>
+      <c r="F130" s="38"/>
+      <c r="G130" s="38"/>
+      <c r="H130" s="38"/>
+      <c r="I130" s="38"/>
+    </row>
+    <row r="131" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="21"/>
+    </row>
+    <row r="132" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B130" s="2"/>
-      <c r="C130" s="3"/>
-      <c r="E130" s="1" t="s">
+      <c r="B132" s="2"/>
+      <c r="C132" s="3"/>
+      <c r="E132" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B131" s="2"/>
-      <c r="E131" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
-    </row>
-    <row r="132" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
     <row r="133" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
+      <c r="A133" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="E133" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
     </row>
     <row r="134" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="14"/>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c r="G134" s="14"/>
-      <c r="H134" s="14"/>
-      <c r="I134" s="14"/>
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
     </row>
     <row r="135" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="14"/>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c r="G135" s="14"/>
-      <c r="H135" s="14"/>
-      <c r="I135" s="14"/>
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
     </row>
     <row r="136" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="14"/>
@@ -3936,26 +3983,26 @@
       <c r="I214" s="14"/>
     </row>
     <row r="215" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
-      <c r="C215" s="1"/>
-      <c r="D215" s="1"/>
-      <c r="E215" s="1"/>
-      <c r="F215" s="1"/>
-      <c r="G215" s="1"/>
-      <c r="H215" s="1"/>
-      <c r="I215" s="1"/>
+      <c r="A215" s="14"/>
+      <c r="B215" s="14"/>
+      <c r="C215" s="14"/>
+      <c r="D215" s="14"/>
+      <c r="E215" s="14"/>
+      <c r="F215" s="14"/>
+      <c r="G215" s="14"/>
+      <c r="H215" s="14"/>
+      <c r="I215" s="14"/>
     </row>
     <row r="216" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
-      <c r="C216" s="1"/>
-      <c r="D216" s="1"/>
-      <c r="E216" s="1"/>
-      <c r="F216" s="1"/>
-      <c r="G216" s="1"/>
-      <c r="H216" s="1"/>
-      <c r="I216" s="1"/>
+      <c r="A216" s="14"/>
+      <c r="B216" s="14"/>
+      <c r="C216" s="14"/>
+      <c r="D216" s="14"/>
+      <c r="E216" s="14"/>
+      <c r="F216" s="14"/>
+      <c r="G216" s="14"/>
+      <c r="H216" s="14"/>
+      <c r="I216" s="14"/>
     </row>
     <row r="217" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
@@ -5805,94 +5852,30 @@
       <c r="H384" s="1"/>
       <c r="I384" s="1"/>
     </row>
+    <row r="385" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A385" s="1"/>
+      <c r="B385" s="1"/>
+      <c r="C385" s="1"/>
+      <c r="D385" s="1"/>
+      <c r="E385" s="1"/>
+      <c r="F385" s="1"/>
+      <c r="G385" s="1"/>
+      <c r="H385" s="1"/>
+      <c r="I385" s="1"/>
+    </row>
+    <row r="386" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A386" s="1"/>
+      <c r="B386" s="1"/>
+      <c r="C386" s="1"/>
+      <c r="D386" s="1"/>
+      <c r="E386" s="1"/>
+      <c r="F386" s="1"/>
+      <c r="G386" s="1"/>
+      <c r="H386" s="1"/>
+      <c r="I386" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="110">
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="A124:I124"/>
-    <mergeCell ref="A126:I126"/>
-    <mergeCell ref="A127:I128"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="C101:F101"/>
-    <mergeCell ref="C102:F102"/>
-    <mergeCell ref="C103:F103"/>
-    <mergeCell ref="C104:F104"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="A120:I120"/>
-    <mergeCell ref="A99:I99"/>
-    <mergeCell ref="A97:I97"/>
-    <mergeCell ref="C115:F115"/>
-    <mergeCell ref="C116:F116"/>
-    <mergeCell ref="C117:F117"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="A96:I96"/>
-    <mergeCell ref="A123:I123"/>
-    <mergeCell ref="A84:I84"/>
-    <mergeCell ref="A86:I86"/>
-    <mergeCell ref="A83:I83"/>
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="B90:G90"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="A81:I81"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="A45:I45"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="A75:I75"/>
-    <mergeCell ref="A78:I78"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A71:I71"/>
-    <mergeCell ref="A77:I77"/>
-    <mergeCell ref="A69:I69"/>
-    <mergeCell ref="A72:I72"/>
-    <mergeCell ref="A74:I74"/>
-    <mergeCell ref="A67:I67"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="A121:I121"/>
-    <mergeCell ref="C105:F105"/>
-    <mergeCell ref="C106:F106"/>
-    <mergeCell ref="C107:F107"/>
-    <mergeCell ref="C108:F108"/>
-    <mergeCell ref="C109:F109"/>
-    <mergeCell ref="C110:F110"/>
-    <mergeCell ref="C111:F111"/>
-    <mergeCell ref="C112:F112"/>
-    <mergeCell ref="C113:F113"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="C114:F114"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="G114:I114"/>
+  <mergeCells count="114">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A80:I80"/>
@@ -5915,8 +5898,98 @@
     <mergeCell ref="A31:I31"/>
     <mergeCell ref="A29:I29"/>
     <mergeCell ref="A54:I54"/>
+    <mergeCell ref="A123:I123"/>
+    <mergeCell ref="C105:F105"/>
+    <mergeCell ref="C106:F106"/>
+    <mergeCell ref="C107:F107"/>
+    <mergeCell ref="C108:F108"/>
+    <mergeCell ref="C109:F109"/>
+    <mergeCell ref="C110:F110"/>
+    <mergeCell ref="C111:F111"/>
+    <mergeCell ref="C112:F112"/>
+    <mergeCell ref="C113:F113"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="C115:F115"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="C114:F114"/>
+    <mergeCell ref="C117:F117"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="A75:I75"/>
+    <mergeCell ref="A78:I78"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A71:I71"/>
+    <mergeCell ref="A77:I77"/>
+    <mergeCell ref="A69:I69"/>
+    <mergeCell ref="A72:I72"/>
+    <mergeCell ref="A74:I74"/>
+    <mergeCell ref="A67:I67"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="A84:I84"/>
+    <mergeCell ref="A86:I86"/>
+    <mergeCell ref="A83:I83"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A45:I45"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A22:I22"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="H62:I62"/>
+    <mergeCell ref="A96:I96"/>
+    <mergeCell ref="A125:I125"/>
+    <mergeCell ref="A81:I81"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="A126:I126"/>
+    <mergeCell ref="A128:I128"/>
+    <mergeCell ref="A129:I130"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C101:F101"/>
+    <mergeCell ref="C102:F102"/>
+    <mergeCell ref="C103:F103"/>
+    <mergeCell ref="C104:F104"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="A122:I122"/>
+    <mergeCell ref="A99:I99"/>
+    <mergeCell ref="A97:I97"/>
+    <mergeCell ref="C116:F116"/>
+    <mergeCell ref="C118:F118"/>
+    <mergeCell ref="C119:F119"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A26" r:id="rId1"/>
